--- a/DFC.ServiceTaxonomy.TestSuite/Features/Editor/Import/03JPRecipesFirstRun.xlsx
+++ b/DFC.ServiceTaxonomy.TestSuite/Features/Editor/Import/03JPRecipesFirstRun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NationalCareerService\dfc-servicetaxonomy-tests\DFC.ServiceTaxonomy.TestSuite\Features\Editor\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F12A52-5EB5-400F-90A2-CC387A064458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C740A4-F649-44FE-AC7E-7E0263812A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,169 +38,169 @@
     <t>Path</t>
   </si>
   <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-1-15.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-2-30.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-3-45.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-4-60.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-5-75.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-6-90.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-7-105.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-8-120.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-9-135.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-10-150.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-11-165.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-12-180.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-13-195.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-14-210.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-15-225.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-16-240.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-17-255.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-18-270.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-19-285.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-20-300.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-21-315.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-22-330.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-23-345.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-24-360.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-25-375.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-26-390.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-27-405.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-28-420.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-29-435.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-30-450.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-31-465.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-32-480.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-33-495.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-34-510.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-35-525.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-36-540.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-37-555.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-38-570.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-39-585.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-40-600.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-41-615.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-42-630.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-43-645.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-44-660.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-45-675.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-46-690.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-47-705.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-48-720.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-49-735.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-50-750.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-51-765.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-52-780.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-53-795.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-54-810.json</t>
-  </si>
-  <si>
-    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3B-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-55-822.json</t>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-1-15.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-2-30.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-3-45.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-4-60.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-5-75.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-6-90.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-7-105.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-8-120.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-9-135.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-10-150.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-11-165.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-12-180.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-13-195.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-14-210.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-15-225.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-16-240.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-17-255.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-18-270.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-19-285.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-20-300.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-21-315.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-22-330.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-23-345.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-24-360.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-25-375.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-26-390.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-27-405.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-28-420.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-29-435.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-30-450.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-31-465.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-32-480.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-33-495.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-34-510.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-35-525.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-36-540.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-37-555.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-38-570.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-39-585.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-40-600.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-41-615.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-42-630.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-43-645.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-44-660.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-45-675.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-46-690.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-47-705.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-48-720.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-49-735.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-50-750.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-51-765.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-52-780.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-53-795.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-54-810.json</t>
+  </si>
+  <si>
+    <t>C:\Users\ravim\Desktop\JP Migration Recipes\PROD-3A-04-JobProfile-FirstRun-Recipe-x15items\24-JobProfile-55-822.json</t>
   </si>
 </sst>
 </file>
